--- a/1.GDD/Slime企劃文件.xlsx
+++ b/1.GDD/Slime企劃文件.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{983C775E-4B03-4E8C-B4F6-7422642AD373}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6EDF8-DB86-4C44-A176-893F78395BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物件類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有打勾可以碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能踩但是可以碰撞的東西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件Layer類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載裡面切換為水中狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸碰到會結束遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +137,8 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,6 +161,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +281,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -241,6 +300,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -270,22 +335,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2238375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1437888</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
+        <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDED5AF-DF54-42D7-A7FB-9BDB1892F1F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C572DBA2-8F04-4A21-8119-3CFCDB2F07BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -294,21 +359,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="1914525"/>
-          <a:ext cx="3152775" cy="3048000"/>
+          <a:off x="1200150" y="1990725"/>
+          <a:ext cx="3095238" cy="3009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,161 +700,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB392FF-7949-4FBD-9C99-244DC2F9EF5D}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="4" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C24"/>
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="9">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D30"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
